--- a/data/trans_camb/P1427-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P1427-Provincia-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.964348785348559</v>
+        <v>-5.195068698151389</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.511279977565495</v>
+        <v>-5.738065141486601</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.64193931521618</v>
+        <v>-3.669885114935405</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.368049877554992</v>
+        <v>-5.448726352385757</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.328747048067651</v>
+        <v>-3.396953494253768</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-4.530096654014403</v>
+        <v>-4.554369847151843</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.2645052380247113</v>
+        <v>-0.1560486007076814</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-1.124886191148215</v>
+        <v>-1.158687055391734</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.791047510468063</v>
+        <v>2.836284832387845</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.6060212366962172</v>
+        <v>-0.6657635362866865</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.637236786047973</v>
+        <v>0.6198691783565684</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-1.3160849461358</v>
+        <v>-1.327016787215357</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-1</v>
+        <v>-0.9453454517256413</v>
       </c>
       <c r="D8" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.7013665415859648</v>
+        <v>-0.7218214041975108</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.8979084325273868</v>
+        <v>-0.9102335085216561</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7335145720766049</v>
+        <v>-0.7436139799213032</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.9026992051882302</v>
+        <v>-0.9074996066644082</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.05816528081382978</v>
+        <v>0.28994437432377</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.3231683229006834</v>
+        <v>-0.3240226582474762</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.484446792355536</v>
+        <v>1.422101706776938</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.1564664588314328</v>
+        <v>-0.2224342179444963</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2869106265967147</v>
+        <v>0.2883714800200138</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.4848049491773437</v>
+        <v>-0.5054251014315241</v>
       </c>
     </row>
     <row r="10">
@@ -784,7 +784,7 @@
         <v>-1.184788795122278</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>1.292616647508818</v>
+        <v>1.292616647508817</v>
       </c>
     </row>
     <row r="11">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.990545714939694</v>
+        <v>-1.997866418129678</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.382481156544248</v>
+        <v>-0.288889218964192</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.803479817004771</v>
+        <v>-3.554055513140548</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.8300096751700243</v>
+        <v>-0.8936380854123006</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.36073079767145</v>
+        <v>-2.476474362551048</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.01553332828976839</v>
+        <v>-0.01012306578441387</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02599154530581662</v>
+        <v>0.03246259198275572</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.691179992374288</v>
+        <v>2.954322946262423</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.03376798457862677</v>
+        <v>0.03080988756257532</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.281219858698055</v>
+        <v>3.213281184523206</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-0.1740875912453459</v>
+        <v>-0.2646579644503933</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.505444367333739</v>
+        <v>2.499873157489825</v>
       </c>
     </row>
     <row r="13">
@@ -862,7 +862,7 @@
         <v>-0.6381060514612059</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6961802039238103</v>
+        <v>0.6961802039238099</v>
       </c>
     </row>
     <row r="14">
@@ -872,21 +872,23 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="6" t="inlineStr"/>
+      <c r="C14" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4302756550505814</v>
+        <v>-0.3135637116317589</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.9087103146551998</v>
+        <v>-0.8846473661600051</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2297723016582031</v>
+        <v>-0.26697858277381</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.8909985445026432</v>
+        <v>-0.8794302088226739</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.078072452137711</v>
+        <v>-0.04594790697655562</v>
       </c>
     </row>
     <row r="15">
@@ -898,19 +900,19 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>5.920874326752816</v>
+        <v>7.545764819598975</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.199080640535014</v>
+        <v>0.2017855133804306</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.138676917926337</v>
+        <v>2.075353739040315</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.07354403322544335</v>
+        <v>0.02203425727094316</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.0872567927267</v>
+        <v>2.037617013371686</v>
       </c>
     </row>
     <row r="16">
@@ -951,22 +953,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.87405978224057</v>
+        <v>-1.773984437565435</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.012061664704268</v>
+        <v>2.118683668962929</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.185945599143057</v>
+        <v>-2.220274549142037</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.55435624167649</v>
+        <v>1.414775751766723</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.348371278680254</v>
+        <v>-1.442093119506441</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>2.519862249785698</v>
+        <v>2.481488137572218</v>
       </c>
     </row>
     <row r="18">
@@ -977,22 +979,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.88566333544496</v>
+        <v>1.798420481036366</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.04346203197259</v>
+        <v>7.095845354074136</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.781039737712274</v>
+        <v>1.785561150023311</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.246922276551961</v>
+        <v>6.148665968372976</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.296383018036667</v>
+        <v>1.180544410096238</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.814940922729305</v>
+        <v>5.731187980242469</v>
       </c>
     </row>
     <row r="19">
@@ -1029,22 +1031,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.7796489653821622</v>
+        <v>-0.7412990928530709</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.4351163910117842</v>
+        <v>0.5585230179354713</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.8092040833458479</v>
+        <v>-0.8278922658154455</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.4344207374279642</v>
+        <v>0.3202433591969492</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5915195191575687</v>
+        <v>-0.6319452788973536</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9063973023513185</v>
+        <v>0.8484007350721313</v>
       </c>
     </row>
     <row r="21">
@@ -1055,22 +1057,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>3.144049228855766</v>
+        <v>3.150631193953852</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>14.42796967630142</v>
+        <v>10.30128290255478</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.491414081126806</v>
+        <v>2.738738162696835</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>8.045716796129591</v>
+        <v>7.089313963284435</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.366949910957014</v>
+        <v>1.207355957644813</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>6.232483022747251</v>
+        <v>5.940178372082897</v>
       </c>
     </row>
     <row r="22">
@@ -1088,7 +1090,7 @@
         <v>-1.513700739526191</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>-0.4063180453842071</v>
+        <v>-0.4063180453842075</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>-1.689297126480751</v>
@@ -1100,7 +1102,7 @@
         <v>-1.601703201124138</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-0.7966210989601624</v>
+        <v>-0.7966210989601628</v>
       </c>
     </row>
     <row r="23">
@@ -1111,22 +1113,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.702027648477574</v>
+        <v>-3.447088740847749</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.452738410087861</v>
+        <v>-2.499087855171148</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.252323173776327</v>
+        <v>-4.186847446168626</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.500810669185541</v>
+        <v>-3.606839667882734</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.0583575115965</v>
+        <v>-3.010167326619811</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.275208568568904</v>
+        <v>-2.31587190807844</v>
       </c>
     </row>
     <row r="24">
@@ -1137,22 +1139,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.04622819050148406</v>
+        <v>0.1356062764817927</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.50158315310651</v>
+        <v>1.468368813073119</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3781382409193483</v>
+        <v>0.5199310785741641</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6816398942365904</v>
+        <v>0.6793923992932638</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.1739404105625555</v>
+        <v>-0.2032887074266675</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.5465074229771971</v>
+        <v>0.5600785375749111</v>
       </c>
     </row>
     <row r="25">
@@ -1166,7 +1168,7 @@
         <v>-0.6663003993237459</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>-0.1788529719399378</v>
+        <v>-0.178852971939938</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>-0.499566829331223</v>
@@ -1178,7 +1180,7 @@
         <v>-0.5644673469061057</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.2807427730080552</v>
+        <v>-0.2807427730080553</v>
       </c>
     </row>
     <row r="26">
@@ -1189,22 +1191,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.9358233186212364</v>
+        <v>-1</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.7130483063961222</v>
+        <v>-0.6844235785605846</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.8325997218110675</v>
+        <v>-0.8511723224687228</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.6811139733240471</v>
+        <v>-0.6780194679567212</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.8113429715894549</v>
+        <v>-0.8169676566709142</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.5820094862189304</v>
+        <v>-0.5959417672887828</v>
       </c>
     </row>
     <row r="27">
@@ -1215,22 +1217,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.4202886491120614</v>
+        <v>0.5775246837841636</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.405124379360866</v>
+        <v>1.71822680641635</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.4120787859741175</v>
+        <v>0.4271593662594129</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3791913682096745</v>
+        <v>0.4314771655307861</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.004673528152548653</v>
+        <v>-0.04402639357245289</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2886702033523833</v>
+        <v>0.3201043007703429</v>
       </c>
     </row>
     <row r="28">
@@ -1254,7 +1256,7 @@
         <v>-2.3645253167998</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>-1.899754550157182</v>
+        <v>-1.899754550157183</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>-3.442542602466045</v>
@@ -1271,22 +1273,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-8.612322929259323</v>
+        <v>-7.959981830674846</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.088746669455799</v>
+        <v>-4.237574063551937</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-6.893007943834975</v>
+        <v>-6.38404395920569</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-5.912412613012703</v>
+        <v>-5.861016943557055</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-6.267763302202067</v>
+        <v>-6.249436701876195</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-4.142254416524157</v>
+        <v>-3.785153195660242</v>
       </c>
     </row>
     <row r="30">
@@ -1297,22 +1299,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-2.083591229029781</v>
+        <v>-2.019425659071485</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.806985338734854</v>
+        <v>3.229477260148936</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.104862723062905</v>
+        <v>1.448767293752961</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.836657344575247</v>
+        <v>1.483108728700798</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-1.10896316671473</v>
+        <v>-1.119023109814197</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.300495264498121</v>
+        <v>1.076181078724361</v>
       </c>
     </row>
     <row r="31">
@@ -1332,7 +1334,7 @@
         <v>-0.434425180754673</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>-0.3490346277867419</v>
+        <v>-0.349034627786742</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>-0.6873949974712563</v>
@@ -1350,19 +1352,19 @@
       </c>
       <c r="C32" s="6" t="inlineStr"/>
       <c r="D32" s="6" t="n">
-        <v>-0.6067369797762606</v>
+        <v>-0.6021609486004345</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.8593129891870264</v>
+        <v>-0.8276406288324474</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.6842130854246843</v>
+        <v>-0.6887924293495646</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.8866325837895029</v>
+        <v>-0.9023775932711722</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.5667806480660479</v>
+        <v>-0.5476472298392847</v>
       </c>
     </row>
     <row r="33">
@@ -1374,19 +1376,19 @@
       </c>
       <c r="C33" s="6" t="inlineStr"/>
       <c r="D33" s="6" t="n">
-        <v>1.158194878738423</v>
+        <v>1.560553700452217</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.5095298327706433</v>
+        <v>0.5515801231533899</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.3100441896492197</v>
+        <v>0.5603562986945489</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.2222314939135442</v>
+        <v>-0.2052771768169525</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4326361246957827</v>
+        <v>0.3185869736510571</v>
       </c>
     </row>
     <row r="34">
@@ -1404,13 +1406,13 @@
         <v>0.8203272426193934</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>9.899445634062442</v>
+        <v>9.899445634062443</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>1.611932860736921</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>10.56426210358321</v>
+        <v>10.5642621035832</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>1.227102170169623</v>
@@ -1427,22 +1429,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-0.9805342065373251</v>
+        <v>-0.9442125136836393</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>7.059409159493223</v>
+        <v>7.141282263806424</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.6784781580444322</v>
+        <v>-0.7949089260743866</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>7.520765144789193</v>
+        <v>7.790343379741309</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-0.2109165798691617</v>
+        <v>-0.1325823477310884</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>8.296858898790965</v>
+        <v>8.462890192943142</v>
       </c>
     </row>
     <row r="36">
@@ -1453,22 +1455,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>2.572778237479142</v>
+        <v>2.77294344321892</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>12.65778511454874</v>
+        <v>12.81848978692743</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>4.557787146093998</v>
+        <v>4.467735454216371</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>13.40268733325611</v>
+        <v>13.83737953686489</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>2.812542834058984</v>
+        <v>3.017245348464401</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>12.42221307835898</v>
+        <v>12.41076835414762</v>
       </c>
     </row>
     <row r="37">
@@ -1488,7 +1490,7 @@
         <v>1.13041272178015</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>7.408482430621159</v>
+        <v>7.408482430621155</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>1.108846875396369</v>
@@ -1504,21 +1506,23 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C38" s="6" t="inlineStr"/>
+      <c r="C38" s="6" t="n">
+        <v>-0.8475773533627475</v>
+      </c>
       <c r="D38" s="6" t="n">
-        <v>2.797969968954205</v>
+        <v>2.747185848790525</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.4881028639675623</v>
+        <v>-0.5418170575509229</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>2.326522556355541</v>
+        <v>2.434280107469903</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.2043966352436795</v>
+        <v>-0.2393465329800632</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>3.535509070857075</v>
+        <v>3.905188147785795</v>
       </c>
     </row>
     <row r="39">
@@ -1531,16 +1535,16 @@
       <c r="C39" s="6" t="inlineStr"/>
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="n">
-        <v>10.74883293642692</v>
+        <v>8.874930503839517</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>32.75746886196382</v>
+        <v>30.76088389340932</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>5.733449596522862</v>
+        <v>6.087439687693085</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>28.26735241083929</v>
+        <v>26.85356678344099</v>
       </c>
     </row>
     <row r="40">
@@ -1558,7 +1562,7 @@
         <v>-0.4400786760015672</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>0.9976904931442078</v>
+        <v>0.9976904931442085</v>
       </c>
       <c r="E40" s="5" t="n">
         <v>0.5923582223030948</v>
@@ -1581,22 +1585,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-2.233275011581322</v>
+        <v>-2.215649929539369</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.9051520259996617</v>
+        <v>-1.077216143430012</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-1.123230577923927</v>
+        <v>-1.170004253701125</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>2.184933269896793</v>
+        <v>2.236898301515792</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.266500160757919</v>
+        <v>-1.151520358344023</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>1.426524557600368</v>
+        <v>1.319545553793584</v>
       </c>
     </row>
     <row r="42">
@@ -1607,22 +1611,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.9979097716622781</v>
+        <v>1.044456015870146</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.928635715553675</v>
+        <v>2.808788545360102</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2.548746917516952</v>
+        <v>2.298200479422343</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>5.993857000561115</v>
+        <v>6.156198745648608</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>1.180448195288994</v>
+        <v>1.261657912243183</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>4.081031892116421</v>
+        <v>3.973336272563837</v>
       </c>
     </row>
     <row r="43">
@@ -1636,7 +1640,7 @@
         <v>-0.2039209974025126</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>0.4623037914707937</v>
+        <v>0.462303791470794</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>0.2656413853379862</v>
@@ -1659,22 +1663,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.6639034794763718</v>
+        <v>-0.6551575636685846</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.3430853712737356</v>
+        <v>-0.3448506708670231</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.4126437151574148</v>
+        <v>-0.4275912821779286</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.5576207180523801</v>
+        <v>0.569622344750088</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.4507851890263616</v>
+        <v>-0.419102261345462</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.4564756589110653</v>
+        <v>0.3826512780834762</v>
       </c>
     </row>
     <row r="45">
@@ -1685,22 +1689,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.8909609453171395</v>
+        <v>0.8977758367183364</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>2.310229160514567</v>
+        <v>2.086338350874509</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.741977144290185</v>
+        <v>1.458754071655132</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>4.057338345991238</v>
+        <v>4.110072774067413</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.7225833233239963</v>
+        <v>0.7804436279883761</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>2.498697425545225</v>
+        <v>2.30862065362955</v>
       </c>
     </row>
     <row r="46">
@@ -1724,7 +1728,7 @@
         <v>0.04459810090362802</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>0.2740229434967354</v>
+        <v>0.2740229434967361</v>
       </c>
       <c r="G46" s="5" t="n">
         <v>-0.3174088711035538</v>
@@ -1741,22 +1745,22 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-2.212439932783772</v>
+        <v>-2.126948267135279</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-2.108649103670975</v>
+        <v>-1.814889313103972</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-1.370759441664255</v>
+        <v>-1.4126884818908</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-1.209298300777813</v>
+        <v>-1.125974878977444</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-1.468880918463348</v>
+        <v>-1.328714355840519</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-1.109836839651129</v>
+        <v>-1.059374411580303</v>
       </c>
     </row>
     <row r="48">
@@ -1767,22 +1771,22 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.4839080334682358</v>
+        <v>0.4659581355718946</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.6653972879527285</v>
+        <v>0.7664642028127053</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1.672754902898457</v>
+        <v>1.536627177617942</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>1.573595612011527</v>
+        <v>1.630746278806193</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>0.6313549936290694</v>
+        <v>0.6757261892419234</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>0.7729812637876481</v>
+        <v>0.8172246907906066</v>
       </c>
     </row>
     <row r="49">
@@ -1802,7 +1806,7 @@
         <v>0.01994698728284166</v>
       </c>
       <c r="F49" s="6" t="n">
-        <v>0.1225597516124632</v>
+        <v>0.1225597516124635</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>-0.1603631499377884</v>
@@ -1819,22 +1823,22 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.8121893715407127</v>
+        <v>-0.7898629035092575</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.7032726901147994</v>
+        <v>-0.6805282642040619</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.476058485490426</v>
+        <v>-0.4890491428297945</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.3975119923646991</v>
+        <v>-0.3641059444540789</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.5462446352965789</v>
+        <v>-0.5263758098314568</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.4193313260727136</v>
+        <v>-0.4059468316804321</v>
       </c>
     </row>
     <row r="51">
@@ -1845,22 +1849,22 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.7985236679915139</v>
+        <v>0.6304579672097542</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.8015120872987458</v>
+        <v>0.812374294705879</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>1.116270203512099</v>
+        <v>1.056784792865895</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>1.098744829979005</v>
+        <v>1.200079693146609</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.4269033513187799</v>
+        <v>0.4503365128330248</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.5701017416469719</v>
+        <v>0.5531038573150501</v>
       </c>
     </row>
     <row r="52">
@@ -1884,13 +1888,13 @@
         <v>-0.3754346495776495</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>1.788391147452678</v>
+        <v>1.788391147452677</v>
       </c>
       <c r="G52" s="5" t="n">
         <v>-0.6511508316614512</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>1.468434234364428</v>
+        <v>1.468434234364427</v>
       </c>
     </row>
     <row r="53">
@@ -1901,22 +1905,22 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-1.589657069304178</v>
+        <v>-1.525070321651815</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>0.4829766275461324</v>
+        <v>0.4165052673493422</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-1.18780880308061</v>
+        <v>-1.15201742678616</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>1.12385032981894</v>
+        <v>1.047478533007953</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-1.158650945529063</v>
+        <v>-1.126605595791209</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>0.942426598964258</v>
+        <v>0.9408748237752679</v>
       </c>
     </row>
     <row r="54">
@@ -1927,22 +1931,22 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>-0.3749373633060804</v>
+        <v>-0.3615368182358573</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>1.947192720116802</v>
+        <v>1.816781069474942</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>0.3942769297576832</v>
+        <v>0.4361638194002309</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>2.639419164308622</v>
+        <v>2.65377697834703</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>-0.1769986800599193</v>
+        <v>-0.1640260184175673</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>1.989284282758055</v>
+        <v>1.971523277977872</v>
       </c>
     </row>
     <row r="55">
@@ -1962,13 +1966,13 @@
         <v>-0.1419117369035789</v>
       </c>
       <c r="F55" s="6" t="n">
-        <v>0.6759996560879582</v>
+        <v>0.6759996560879579</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>-0.2805748045793905</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.632734580547534</v>
+        <v>0.6327345805475337</v>
       </c>
     </row>
     <row r="56">
@@ -1979,22 +1983,22 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.6615537643130481</v>
+        <v>-0.6434748135165386</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.1861884675751053</v>
+        <v>0.1719501090901592</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.3806934045076823</v>
+        <v>-0.3818470195618709</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.3492982604858635</v>
+        <v>0.3279542551940676</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.4519261547471995</v>
+        <v>-0.434485328580804</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.3481157395535848</v>
+        <v>0.3547977841633347</v>
       </c>
     </row>
     <row r="57">
@@ -2005,22 +2009,22 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>-0.2267425501092226</v>
+        <v>-0.1842289313304937</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>1.166964993250593</v>
+        <v>1.129544159769466</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.1753576396747634</v>
+        <v>0.1963420897481645</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>1.213872691054668</v>
+        <v>1.205513985202178</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>-0.09155191511889457</v>
+        <v>-0.08320815670480111</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.9539570003553994</v>
+        <v>0.9506387202862332</v>
       </c>
     </row>
     <row r="58">
